--- a/doc/04_DB定義書_F1.xlsx
+++ b/doc/04_DB定義書_F1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/hojo-yuki-plusdojo2022_seplus2016_onmicrosoft_com/Documents/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6AE57B-E8CB-4771-87D0-E2030A49424A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{EB6AE57B-E8CB-4771-87D0-E2030A49424A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A4977D6-815B-4A38-B886-CF706E58838A}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="780" windowWidth="16935" windowHeight="10560" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="16935" windowHeight="10560" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="schedule" sheetId="3" r:id="rId3"/>
     <sheet name="recipe_show" sheetId="5" r:id="rId4"/>
     <sheet name="travel" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
-    <sheet name="紐づけテーブル設計書" sheetId="7" r:id="rId7"/>
+    <sheet name="紐づけテーブル設計書" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
     <sheet name="recipe_pick" sheetId="4" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -708,42 +708,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>8文字以上　正規表現で</t>
+    <rPh sb="1" eb="5">
+      <t>モジイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースのビュー機能を使う（仮想テーブル）</t>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーごとのレシピテーブルを作る場合、</t>
+    <rPh sb="15" eb="16">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>8文字以上 正規表現で</t>
     <rPh sb="1" eb="5">
       <t>モジイジョウ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>セイキヒョウゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8文字以上　正規表現で</t>
-    <rPh sb="1" eb="5">
-      <t>モジイジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベースのビュー機能を使う（仮想テーブル）</t>
-    <rPh sb="10" eb="12">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーごとのレシピテーブルを作る場合、</t>
-    <rPh sb="15" eb="16">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -989,6 +986,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1007,18 +1112,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1044,102 +1137,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1880,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2113,7 +2110,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2424,7 +2421,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:H10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4055,49 +4052,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E76919A-866A-4EAF-ACBD-55B63727FFDA}">
-  <dimension ref="B3:F4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F9629B-94C2-4983-BA88-75FA68CBB4CC}">
   <dimension ref="B3:T37"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4112,662 +4071,667 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="52"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="30" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="52" t="s">
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="54"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="57"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="35"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="60"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="38"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="39" t="s">
+      <c r="C12" s="44"/>
+      <c r="D12" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="39" t="s">
+      <c r="H12" s="44"/>
+      <c r="I12" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="J12" s="40"/>
+      <c r="J12" s="44"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="39" t="s">
+      <c r="L12" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="M12" s="40"/>
-      <c r="N12" s="39" t="s">
+      <c r="M12" s="44"/>
+      <c r="N12" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="O12" s="40"/>
+      <c r="O12" s="44"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="39" t="s">
+      <c r="Q12" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="R12" s="40"/>
-      <c r="S12" s="39" t="s">
+      <c r="R12" s="44"/>
+      <c r="S12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="T12" s="40"/>
+      <c r="T12" s="44"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="42"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="42"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="46"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="42"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="46"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B15" s="17">
+      <c r="B15" s="39">
         <v>1</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="17" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="17" t="s">
+      <c r="H15" s="40"/>
+      <c r="I15" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="18"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="17" t="s">
+      <c r="M15" s="40"/>
+      <c r="N15" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="O15" s="18"/>
+      <c r="O15" s="40"/>
       <c r="P15" s="9"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="18"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="40"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="20"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="42"/>
       <c r="P16" s="9"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="20"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="42"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B17" s="17">
+      <c r="B17" s="39">
         <v>2</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="17" t="s">
+      <c r="H17" s="40"/>
+      <c r="I17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="J17" s="18"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="17" t="s">
+      <c r="L17" s="39"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="O17" s="18"/>
+      <c r="O17" s="40"/>
       <c r="P17" s="9"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="18"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="40"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="20"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="42"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="20"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="42"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B19" s="17">
+      <c r="B19" s="39">
         <v>3</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="18"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="17" t="s">
+      <c r="H19" s="40"/>
+      <c r="I19" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="J19" s="18"/>
+      <c r="J19" s="40"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="17" t="s">
+      <c r="M19" s="40"/>
+      <c r="N19" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="O19" s="18"/>
+      <c r="O19" s="40"/>
       <c r="P19" s="9"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="17" t="s">
+      <c r="Q19" s="39"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="T19" s="18"/>
+      <c r="T19" s="40"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="20"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="42"/>
       <c r="P20" s="9"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="20"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="42"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B21" s="17">
+      <c r="B21" s="39">
         <v>4</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="17" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="18"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="17" t="s">
+      <c r="H21" s="40"/>
+      <c r="I21" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="J21" s="18"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="17" t="s">
+      <c r="L21" s="39"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="O21" s="18"/>
+      <c r="O21" s="40"/>
       <c r="P21" s="10"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="T21" s="18"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="T21" s="40"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="42"/>
       <c r="P22" s="10"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="20"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="42"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="30" t="s">
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="52" t="s">
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="54"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="32"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="57"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="35"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="60"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="39" t="s">
+      <c r="C29" s="44"/>
+      <c r="D29" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="44"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="H29" s="40"/>
-      <c r="I29" s="39" t="s">
+      <c r="H29" s="44"/>
+      <c r="I29" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="J29" s="40"/>
+      <c r="J29" s="44"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="39" t="s">
+      <c r="L29" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="M29" s="40"/>
-      <c r="N29" s="39" t="s">
+      <c r="M29" s="44"/>
+      <c r="N29" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="O29" s="40"/>
+      <c r="O29" s="44"/>
       <c r="P29" s="8"/>
-      <c r="Q29" s="39" t="s">
+      <c r="Q29" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="R29" s="40"/>
-      <c r="S29" s="39" t="s">
+      <c r="R29" s="44"/>
+      <c r="S29" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="T29" s="40"/>
+      <c r="T29" s="44"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="46"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="42"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="46"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="42"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="46"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B32" s="17">
+      <c r="B32" s="39">
         <v>1</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="17" t="s">
+      <c r="C32" s="40"/>
+      <c r="D32" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="18"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="17" t="s">
+      <c r="H32" s="40"/>
+      <c r="I32" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="J32" s="18"/>
+      <c r="J32" s="40"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="17" t="s">
+      <c r="L32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M32" s="18"/>
-      <c r="N32" s="17" t="s">
+      <c r="M32" s="40"/>
+      <c r="N32" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="O32" s="18"/>
+      <c r="O32" s="40"/>
       <c r="P32" s="9"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="18"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="40"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="42"/>
       <c r="K33" s="9"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="20"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="42"/>
       <c r="P33" s="9"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="20"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="42"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B34" s="17">
+      <c r="B34" s="39">
         <v>2</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="17" t="s">
+      <c r="C34" s="40"/>
+      <c r="D34" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="18"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="18"/>
-      <c r="I34" s="17" t="s">
+      <c r="H34" s="40"/>
+      <c r="I34" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="J34" s="18"/>
+      <c r="J34" s="40"/>
       <c r="K34" s="10"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="17" t="s">
+      <c r="L34" s="39"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="O34" s="18"/>
+      <c r="O34" s="40"/>
       <c r="P34" s="10"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="18"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="40"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="42"/>
       <c r="K35" s="10"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="20"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="42"/>
       <c r="P35" s="10"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="20"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="42"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B36" s="17">
+      <c r="B36" s="39">
         <v>3</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="17" t="s">
+      <c r="C36" s="40"/>
+      <c r="D36" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="18"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="17" t="s">
+      <c r="H36" s="40"/>
+      <c r="I36" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="J36" s="18"/>
+      <c r="J36" s="40"/>
       <c r="K36" s="10"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="18"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="40"/>
       <c r="P36" s="10"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="18"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="40"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="42"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="42"/>
       <c r="K37" s="10"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="20"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="42"/>
       <c r="P37" s="10"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="20"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="B8:F10"/>
-    <mergeCell ref="G8:K10"/>
-    <mergeCell ref="L8:P10"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="N21:O22"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="S12:T13"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="Q15:R16"/>
-    <mergeCell ref="S15:T16"/>
-    <mergeCell ref="L15:M16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="S29:T30"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="S32:T33"/>
+    <mergeCell ref="Q32:R33"/>
+    <mergeCell ref="N32:O33"/>
+    <mergeCell ref="L32:M33"/>
+    <mergeCell ref="I32:J33"/>
+    <mergeCell ref="L34:M35"/>
+    <mergeCell ref="N34:O35"/>
+    <mergeCell ref="D3:L4"/>
+    <mergeCell ref="D32:E33"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="D24:H26"/>
+    <mergeCell ref="I24:M26"/>
+    <mergeCell ref="N24:R26"/>
+    <mergeCell ref="Q29:R30"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="Q34:R35"/>
+    <mergeCell ref="S34:T35"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="D36:E37"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="I36:J37"/>
+    <mergeCell ref="L36:M37"/>
+    <mergeCell ref="N36:O37"/>
+    <mergeCell ref="Q36:R37"/>
+    <mergeCell ref="S36:T37"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D34:E35"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="I34:J35"/>
     <mergeCell ref="G17:H18"/>
     <mergeCell ref="G19:H20"/>
     <mergeCell ref="S17:T18"/>
@@ -4784,40 +4748,73 @@
     <mergeCell ref="L19:M20"/>
     <mergeCell ref="N17:O18"/>
     <mergeCell ref="N19:O20"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="Q34:R35"/>
-    <mergeCell ref="S34:T35"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="D36:E37"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="I36:J37"/>
-    <mergeCell ref="L36:M37"/>
-    <mergeCell ref="N36:O37"/>
-    <mergeCell ref="Q36:R37"/>
-    <mergeCell ref="S36:T37"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="D34:E35"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="I34:J35"/>
-    <mergeCell ref="L34:M35"/>
-    <mergeCell ref="N34:O35"/>
-    <mergeCell ref="D3:L4"/>
-    <mergeCell ref="D32:E33"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="S32:T33"/>
-    <mergeCell ref="Q32:R33"/>
-    <mergeCell ref="N32:O33"/>
-    <mergeCell ref="L32:M33"/>
-    <mergeCell ref="I32:J33"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="D24:H26"/>
-    <mergeCell ref="I24:M26"/>
-    <mergeCell ref="N24:R26"/>
-    <mergeCell ref="Q29:R30"/>
-    <mergeCell ref="S29:T30"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="Q15:R16"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="S12:T13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="B8:F10"/>
+    <mergeCell ref="G8:K10"/>
+    <mergeCell ref="L8:P10"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="N21:O22"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="D19:E20"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E76919A-866A-4EAF-ACBD-55B63727FFDA}">
+  <dimension ref="B3:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
